--- a/importDataFormExcelTool/模板文档/sku.xlsx
+++ b/importDataFormExcelTool/模板文档/sku.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CBB_PF\kettle\undo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CBB_PF\importDataFormExcelTool\模板文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>电商企业代码</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -179,6 +179,10 @@
   </si>
   <si>
     <t>商品货号2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -687,7 +691,7 @@
         <v>12</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
         <v>32</v>

--- a/importDataFormExcelTool/模板文档/sku.xlsx
+++ b/importDataFormExcelTool/模板文档/sku.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CBB_PF\importDataFormExcelTool\模板文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shishaozhong-pc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>电商企业代码</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -182,7 +182,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CNY</t>
+    <t>法定计量单位代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二计量单位代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -190,7 +194,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +245,21 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -264,7 +283,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -282,6 +301,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -580,12 +605,13 @@
     <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,23 +654,29 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -687,23 +719,23 @@
       <c r="N2" t="s">
         <v>30</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>12</v>
       </c>
-      <c r="P2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" t="s">
         <v>32</v>
       </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
         <v>12314</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -746,19 +778,19 @@
       <c r="N3" t="s">
         <v>30</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>12</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>32</v>
       </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
         <v>12314</v>
       </c>
     </row>
